--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_10mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_10mi.xlsx
@@ -591,10 +591,10 @@
         <v>11.2098672384383</v>
       </c>
       <c r="R2" t="n">
-        <v>36.1194029850746</v>
+        <v>37.3134328358209</v>
       </c>
       <c r="S2" t="n">
-        <v>0.453731343283582</v>
+        <v>0.440298507462687</v>
       </c>
     </row>
     <row r="3">
@@ -650,10 +650,10 @@
         <v>13.0819257713673</v>
       </c>
       <c r="R3" t="n">
-        <v>49.1891891891892</v>
+        <v>52.972972972973</v>
       </c>
       <c r="S3" t="n">
-        <v>0.537837837837838</v>
+        <v>0.510810810810811</v>
       </c>
     </row>
     <row r="4">
@@ -707,10 +707,10 @@
         <v>6.22213588168961</v>
       </c>
       <c r="R4" t="n">
-        <v>37.3188405797101</v>
+        <v>31.304347826087</v>
       </c>
       <c r="S4" t="n">
-        <v>0.453623188405797</v>
+        <v>0.411159420289855</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         <v>10.9229564335092</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>29.7540983606557</v>
       </c>
       <c r="S5" t="n">
-        <v>0.45655737704918</v>
+        <v>0.334426229508197</v>
       </c>
     </row>
     <row r="6">
@@ -823,10 +823,10 @@
         <v>11.544172148924</v>
       </c>
       <c r="R6" t="n">
-        <v>29.5294117647059</v>
+        <v>20.8739495798319</v>
       </c>
       <c r="S6" t="n">
-        <v>0.369411764705882</v>
+        <v>0.295294117647059</v>
       </c>
     </row>
     <row r="7">
@@ -880,10 +880,10 @@
         <v>5.65532635796374</v>
       </c>
       <c r="R7" t="n">
-        <v>27.4137931034483</v>
+        <v>20</v>
       </c>
       <c r="S7" t="n">
-        <v>0.351724137931034</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="8">
@@ -942,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="S8" t="n">
-        <v>0.214893617021277</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -998,10 +998,10 @@
         <v>6.34091572258169</v>
       </c>
       <c r="R9" t="n">
-        <v>79.8305084745763</v>
+        <v>54.0677966101695</v>
       </c>
       <c r="S9" t="n">
-        <v>0.505084745762712</v>
+        <v>0.413559322033898</v>
       </c>
     </row>
     <row r="10">
@@ -1057,10 +1057,10 @@
         <v>6.6311776732443</v>
       </c>
       <c r="R10" t="n">
-        <v>79.4202898550725</v>
+        <v>53.9130434782609</v>
       </c>
       <c r="S10" t="n">
-        <v>0.521739130434783</v>
+        <v>0.427536231884058</v>
       </c>
     </row>
     <row r="11">
@@ -1114,10 +1114,10 @@
         <v>20.6481178232457</v>
       </c>
       <c r="R11" t="n">
-        <v>40</v>
+        <v>34.4117647058824</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.408823529411765</v>
       </c>
     </row>
     <row r="12">
@@ -1173,10 +1173,10 @@
         <v>8.88279091282656</v>
       </c>
       <c r="R12" t="n">
-        <v>57.962962962963</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="S12" t="n">
-        <v>0.399074074074074</v>
+        <v>0.311111111111111</v>
       </c>
     </row>
     <row r="13">
@@ -1232,10 +1232,10 @@
         <v>5.93507974024599</v>
       </c>
       <c r="R13" t="n">
-        <v>20</v>
+        <v>18.7878787878788</v>
       </c>
       <c r="S13" t="n">
-        <v>0.212121212121212</v>
+        <v>0.181818181818182</v>
       </c>
     </row>
     <row r="14">
@@ -1289,10 +1289,10 @@
         <v>4.77501249635606</v>
       </c>
       <c r="R14" t="n">
-        <v>31.5789473684211</v>
+        <v>30.1754385964912</v>
       </c>
       <c r="S14" t="n">
-        <v>0.374561403508772</v>
+        <v>0.331578947368421</v>
       </c>
     </row>
     <row r="15">
@@ -1346,10 +1346,10 @@
         <v>9.73087658338039</v>
       </c>
       <c r="R15" t="n">
-        <v>30.8571428571429</v>
+        <v>30.4285714285714</v>
       </c>
       <c r="S15" t="n">
-        <v>0.395714285714286</v>
+        <v>0.345714285714286</v>
       </c>
     </row>
   </sheetData>
